--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,21 +46,30 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
@@ -70,13 +79,22 @@
     <t>small</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
@@ -85,57 +103,63 @@
     <t>thought</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -145,13 +169,13 @@
     <t>loves</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fun</t>
@@ -518,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,37 +611,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="C3">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3">
-        <v>43</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K3">
-        <v>0.7846153846153846</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7954545454545454</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.7678571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -687,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>0.6774193548387096</v>
@@ -737,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7233009708737864</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.453125</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7183098591549296</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.4347826086956522</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6935483870967742</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C8">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D8">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,16 +882,16 @@
         <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.3327868852459017</v>
+        <v>0.339344262295082</v>
       </c>
       <c r="L8">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M8">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.668918918918919</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K9">
-        <v>0.2797704447632712</v>
+        <v>0.3185078909612625</v>
       </c>
       <c r="L9">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="M9">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5546218487394958</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.2593360995850623</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L10">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5454545454545454</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -1005,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.2583333333333334</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4869565217391305</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C12">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.2108433734939759</v>
+        <v>0.1590214067278287</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>131</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4526315789473684</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1105,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.1896024464831804</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L13">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>265</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1137,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4330708661417323</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1155,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.08238387379491674</v>
+        <v>0.08676599474145487</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1179,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1187,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4216867469879518</v>
+        <v>0.4753623188405797</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1205,31 +1229,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.03569110966904607</v>
+        <v>0.04025974025974026</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1486</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1237,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3203125</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1255,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1263,13 +1287,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3168316831683168</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C17">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1281,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>138</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1289,13 +1313,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2559241706161137</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C18">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1307,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1315,13 +1339,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2525773195876289</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1333,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>145</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1341,13 +1365,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1884057971014493</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1359,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>224</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1367,25 +1391,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1634472511144131</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C21">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="E21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>563</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1393,13 +1417,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1518987341772152</v>
+        <v>0.2890625</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1411,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>268</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1419,13 +1443,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.145</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1437,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1445,13 +1469,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1360759493670886</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C24">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1463,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>273</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1471,25 +1495,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1325648414985591</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>301</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1497,13 +1521,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.118942731277533</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1515,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>400</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1523,13 +1547,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1013698630136986</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1541,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>328</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1549,25 +1573,233 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06743421052631579</v>
+        <v>0.1708766716196137</v>
       </c>
       <c r="C28">
+        <v>115</v>
+      </c>
+      <c r="D28">
+        <v>116</v>
+      </c>
+      <c r="E28">
+        <v>0.01</v>
+      </c>
+      <c r="F28">
+        <v>0.99</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.165</v>
+      </c>
+      <c r="C29">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.1645569620253164</v>
+      </c>
+      <c r="C30">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.1343612334801762</v>
+      </c>
+      <c r="C31">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <v>61</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.1161048689138577</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.1152737752161383</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
+      </c>
+      <c r="D33">
         <v>41</v>
       </c>
-      <c r="D28">
+      <c r="E33">
+        <v>0.02</v>
+      </c>
+      <c r="F33">
+        <v>0.98</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.09315068493150686</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.07349665924276169</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>567</v>
+      <c r="B36">
+        <v>0.06754530477759473</v>
+      </c>
+      <c r="C36">
+        <v>41</v>
+      </c>
+      <c r="D36">
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <v>0.02</v>
+      </c>
+      <c r="F36">
+        <v>0.98</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
